--- a/Präsentation - LAS/excelLAS Neu.xlsx
+++ b/Präsentation - LAS/excelLAS Neu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Kriterium</t>
   </si>
@@ -95,49 +95,16 @@
     <t xml:space="preserve">Unsers </t>
   </si>
   <si>
-    <t>Einschränkungen:</t>
-  </si>
-  <si>
-    <t>*1</t>
-  </si>
-  <si>
-    <t>nur an einem Arbeitsplatz anwendbar</t>
-  </si>
-  <si>
-    <t>nur 50 Mitarbeiter</t>
-  </si>
-  <si>
-    <t>*2</t>
-  </si>
-  <si>
     <t>Lohnabrechnung</t>
   </si>
   <si>
     <t>Mitarbeiter</t>
   </si>
   <si>
-    <t>*3</t>
-  </si>
-  <si>
     <t>Manuell</t>
   </si>
   <si>
-    <t>*4</t>
-  </si>
-  <si>
-    <t>nur kleine Betriebe</t>
-  </si>
-  <si>
     <t>Dauer pro Abrechnung  min</t>
-  </si>
-  <si>
-    <t>*5</t>
-  </si>
-  <si>
-    <t>bis zu 50 Mitarbeiter</t>
-  </si>
-  <si>
-    <t>bis zu 5 pro Netzwerk</t>
   </si>
   <si>
     <t>Stundenlohn</t>
@@ -235,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -318,7 +291,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -344,6 +317,7 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -628,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,30 +664,31 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="25">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="25">
         <v>4.33</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="25">
         <v>2.33</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="25">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="25">
         <v>3.33</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="25">
         <v>5</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="25">
         <v>17.5</v>
       </c>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -936,30 +911,33 @@
       <c r="D11" s="2">
         <v>2821</v>
       </c>
-      <c r="N11">
+      <c r="M11" s="25"/>
+      <c r="N11" s="25">
         <f xml:space="preserve"> (N4) / 100 *$T$4 + N5 / 100 *$T$5 + N6 / 100 * $T$6 + N7 / 100 * $T$7 + N8 / 100 * $T$8 + N9 / 100 * $T$9 + N10 / 100 * $T$10</f>
         <v>2.0484999999999998</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="25">
         <f t="shared" ref="O11:R11" si="0" xml:space="preserve"> (O4) / 100 *$T$4 + O5 / 100 *$T$5 + O6 / 100 * $T$6 + O7 / 100 * $T$7 + O8 / 100 * $T$8 + O9 / 100 * $T$9 + O10 / 100 * $T$10</f>
         <v>2.6567500000000002</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="25">
         <f t="shared" si="0"/>
         <v>2.8402499999999997</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="25">
         <f t="shared" si="0"/>
         <v>2.1980000000000004</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="25">
         <f t="shared" si="0"/>
         <v>3.1989999999999998</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="25">
         <f xml:space="preserve"> (S4) / 100 *$T$4 + S5 / 100 *$T$5 + S6 / 100 * $T$6 + S7 / 100 * $T$7 + S8 / 100 * $T$8 + S9 / 100 * $T$9 + S10 / 100 * $T$10</f>
         <v>2.6744999999999997</v>
       </c>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
@@ -1013,52 +991,32 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H17" s="5"/>
       <c r="L17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
       <c r="I18" s="5"/>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="16"/>
       <c r="R22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K23" s="15"/>
       <c r="L23" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="12"/>
@@ -1071,15 +1029,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K24" s="15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7">
         <v>20</v>
@@ -1092,18 +1044,9 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
+    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K25" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L25" s="7">
         <v>50</v>
@@ -1117,12 +1060,12 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="16"/>
       <c r="R25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K26" s="15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L26" s="7">
         <f xml:space="preserve"> L24 * L25</f>
@@ -1146,9 +1089,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K27" s="15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L27" s="17">
         <f xml:space="preserve"> L26 * 12</f>
@@ -1169,9 +1112,9 @@
       </c>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K28" s="15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="22">
@@ -1186,7 +1129,7 @@
       </c>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K29" s="15"/>
       <c r="L29" s="7"/>
       <c r="M29" s="8">
@@ -1201,9 +1144,9 @@
       </c>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K30" s="15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -1215,7 +1158,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="16"/>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:18" x14ac:dyDescent="0.25">
       <c r="K31" s="15"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -1229,7 +1172,7 @@
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
@@ -1237,7 +1180,7 @@
     <row r="34" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K34" s="15"/>
       <c r="L34" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="12"/>
@@ -1248,17 +1191,17 @@
     </row>
     <row r="35" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K35" s="15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M35" s="7">
         <v>45</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P35" s="9">
         <v>4</v>
@@ -1266,17 +1209,17 @@
     </row>
     <row r="36" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K36" s="15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M36" s="7">
         <v>125</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P36" s="9">
         <v>6</v>
@@ -1284,17 +1227,17 @@
     </row>
     <row r="37" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K37" s="15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M37" s="7">
         <v>90</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P37" s="9">
         <v>0</v>
@@ -1302,7 +1245,7 @@
     </row>
     <row r="38" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K38" s="15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L38" s="7">
         <f>SUM(M35:M37)</f>
@@ -1324,7 +1267,7 @@
     </row>
     <row r="39" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K39" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7">
@@ -1340,7 +1283,7 @@
     </row>
     <row r="40" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K40" s="15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="18">
@@ -1370,7 +1313,7 @@
     </row>
     <row r="42" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K42" s="15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
